--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m210842/workspace/python-read-write-docx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74E2975F-D3E7-8940-AEEF-1EB83F93C156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E5F42-01BD-274C-9042-75D658E7E8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="4380" windowWidth="28040" windowHeight="17440" xr2:uid="{95B30F1A-8A7F-6447-BF5B-0B357D24592D}"/>
+    <workbookView xWindow="12700" yWindow="4840" windowWidth="28040" windowHeight="17440" xr2:uid="{95B30F1A-8A7F-6447-BF5B-0B357D24592D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,11 +449,12 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
